--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mouserelec-my.sharepoint.com/personal/rethin_silvester_mouser_com/Documents/Desktop/WCS/Imp Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="13_ncr:1_{9BC06223-E303-487D-AD17-EA97DFF74849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109E7348-0254-4410-B14B-934D72699734}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090254EF-124D-463A-9712-CDABA9CAB9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
-    <sheet name="App Admin Feb" sheetId="1" r:id="rId1"/>
-    <sheet name="App Admin March" sheetId="2" r:id="rId2"/>
-    <sheet name="App Admin April" sheetId="3" r:id="rId3"/>
-    <sheet name="App Admin May" sheetId="4" r:id="rId4"/>
-    <sheet name="App Admin June" sheetId="5" r:id="rId5"/>
-    <sheet name="App Admin July" sheetId="6" r:id="rId6"/>
+    <sheet name="UV-WMS Admin Feb" sheetId="1" r:id="rId1"/>
+    <sheet name="UV-WMS Admin March" sheetId="2" r:id="rId2"/>
+    <sheet name="UV-WMS Admin April" sheetId="3" r:id="rId3"/>
+    <sheet name="UV-WMS Admin May" sheetId="4" r:id="rId4"/>
+    <sheet name="UV-WMS Admin June" sheetId="5" r:id="rId5"/>
+    <sheet name="UV-WMS Admin July" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="28">
   <si>
     <t>Person</t>
   </si>
@@ -323,6 +323,9 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -337,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -841,19 +841,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -942,11 +942,11 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I29" sqref="I29"/>
+      <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,19 +1533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -1643,11 +1643,11 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="12"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="12"/>
+      <c r="AJ5" s="13"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="12"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="12"/>
+      <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2220,7 +2220,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="13"/>
+      <c r="AJ8" s="14"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -2350,19 +2350,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -2457,11 +2457,11 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3149,7 +3149,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G32" sqref="G32"/>
+      <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,19 +3175,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -3285,11 +3285,11 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3891,10 +3891,6 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11">
-        <f>COUNTIF(C2:AJ2,"WFH")</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3992,8 +3988,8 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:AK17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,19 +4001,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -4112,11 +4108,11 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4795,7 +4791,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,19 +4802,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -4916,11 +4912,11 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5110,7 +5106,9 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
@@ -5150,8 +5148,8 @@
       <c r="V4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>17</v>
+      <c r="W4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>17</v>
@@ -5425,7 +5423,7 @@
       <c r="AI8" s="2"/>
     </row>
     <row r="12" spans="1:36" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5454,11 +5452,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ref="B14:B17" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:C17" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090254EF-124D-463A-9712-CDABA9CAB9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BFB53F-F40D-4972-8374-4A9164AFD981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="UV-WMS Admin Feb" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A8:XFD8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,8 +2325,8 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,9 +2334,11 @@
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -3987,9 +3989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0C082-0457-4696-978D-1BE2DD3075D3}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U3" sqref="U3"/>
+      <selection pane="topRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,14 +4792,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2793F-73F1-4265-B1CF-8D693D22CC02}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BFB53F-F40D-4972-8374-4A9164AFD981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCF8E97-971F-4E6D-9B4E-7E6D321907AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="UV-WMS Admin Feb" sheetId="1" r:id="rId1"/>
@@ -3989,9 +3989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0C082-0457-4696-978D-1BE2DD3075D3}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L32" sqref="L32"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2793F-73F1-4265-B1CF-8D693D22CC02}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCF8E97-971F-4E6D-9B4E-7E6D321907AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BF6A7-99EA-4A20-A6C9-B72AEDA53145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="28">
   <si>
     <t>Person</t>
   </si>
@@ -3991,7 +3991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="topRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,7 +4793,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,7 +5040,9 @@
       <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
@@ -5202,7 +5204,9 @@
       <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
@@ -5344,7 +5348,9 @@
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
@@ -5447,7 +5453,7 @@
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -5499,7 +5505,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878BF6A7-99EA-4A20-A6C9-B72AEDA53145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD7B230-108B-4BD1-9976-BD3DA38C6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="28">
   <si>
     <t>Person</t>
   </si>
@@ -3991,7 +3991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U3" sqref="U3"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,7 +4793,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="AE3" sqref="AE3:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,45 +5043,29 @@
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -5115,12 +5099,8 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
@@ -5136,12 +5116,8 @@
       <c r="P4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="5" t="s">
         <v>17</v>
       </c>
@@ -5157,23 +5133,15 @@
       <c r="W4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -5207,45 +5175,29 @@
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -5279,45 +5231,29 @@
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -5351,45 +5287,29 @@
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -5453,7 +5373,7 @@
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -5466,7 +5386,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:C17" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -5479,7 +5399,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -5492,7 +5412,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,7 +5425,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD7B230-108B-4BD1-9976-BD3DA38C6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC674616-76F6-42CC-9CE2-4045DB4EFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="UV-WMS Admin Feb" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="28">
   <si>
     <t>Person</t>
   </si>
@@ -817,30 +817,30 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1032,7 +1032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1511,28 +1511,28 @@
       <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="25" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1742,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="13"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2222,7 +2222,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2329,29 +2329,29 @@
       <selection pane="topRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="25" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>45777</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2555,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3047,7 +3047,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3154,29 +3154,29 @@
       <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3386,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3883,7 +3883,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3994,15 +3994,15 @@
       <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4206,7 +4206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4688,7 +4688,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -4792,20 +4792,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2793F-73F1-4265-B1CF-8D693D22CC02}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AF7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5015,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5045,7 +5045,9 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -5071,7 +5073,7 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -5147,7 +5149,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -5177,7 +5179,9 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -5203,7 +5207,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -5233,33 +5237,71 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="S6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="Z6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -5289,7 +5331,9 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -5315,7 +5359,7 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5352,7 +5396,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -5363,20 +5407,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5389,20 +5433,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -5412,16 +5456,16 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC674616-76F6-42CC-9CE2-4045DB4EFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61575FB8-8072-4EB8-B9AA-23385E6D7C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -4792,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2793F-73F1-4265-B1CF-8D693D22CC02}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6:AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5331,8 +5331,8 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="4" t="s">
-        <v>16</v>
+      <c r="L7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -5465,11 +5465,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/App Admin UV-WCS.xlsx
+++ b/data/App Admin UV-WCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61575FB8-8072-4EB8-B9AA-23385E6D7C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A948524-0414-458B-9EB9-161AF176E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="28">
   <si>
     <t>Person</t>
   </si>
@@ -4793,7 +4793,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5192,7 +5192,9 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="W5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="2"/>
@@ -5336,8 +5338,12 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="2"/>
